--- a/data/output/FV2504_FV2410/PRICAT/27003.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="250">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="250">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -911,6 +911,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U104" totalsRowShown="0">
+  <autoFilter ref="A1:U104"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,7 +1230,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6015,5 +6048,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PRICAT/27003.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -3134,44 +3134,42 @@
       <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V32" s="5"/>
+      <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
@@ -3342,44 +3340,42 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M36" s="5" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3625,9 +3621,7 @@
         <v>185</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>28</v>
       </c>
@@ -3681,9 +3675,7 @@
         <v>185</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>28</v>
       </c>
@@ -3710,44 +3702,42 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -3997,9 +3987,7 @@
         <v>185</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>29</v>
       </c>
@@ -4053,9 +4041,7 @@
         <v>185</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>29</v>
       </c>
@@ -4082,44 +4068,42 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4866,46 +4850,44 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="L68" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="L68" s="4"/>
+      <c r="M68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5138,46 +5120,44 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="L73" s="4"/>
+      <c r="M73" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="V73" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5282,44 +5262,42 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5762,46 +5740,44 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V85" s="5" t="s">
+      <c r="V85" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5910,44 +5886,42 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6178,44 +6152,42 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">

--- a/data/output/FV2504_FV2410/PRICAT/27003.xlsx
+++ b/data/output/FV2504_FV2410/PRICAT/27003.xlsx
@@ -1195,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1221,7 +1221,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1676,7 @@
         <v>214</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2036,7 +2042,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2386,7 +2392,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2590,7 +2596,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -2768,21 +2774,21 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="6" t="s">
         <v>192</v>
       </c>
@@ -2792,18 +2798,18 @@
       <c r="L24" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="6" t="s">
         <v>246</v>
       </c>
@@ -2993,19 +2999,19 @@
       <c r="M28" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V28" s="9" t="s">
+      <c r="V28" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3026,26 +3032,26 @@
       <c r="L29" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9" t="s">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9" t="s">
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="V29" s="9"/>
+      <c r="V29" s="10"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="5" t="s">
@@ -3064,32 +3070,32 @@
       <c r="L30" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9" t="s">
+      <c r="S30" s="10"/>
+      <c r="T30" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="U30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="V30" s="9"/>
+      <c r="V30" s="10"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
@@ -3108,30 +3114,30 @@
       <c r="L31" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9" t="s">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="U31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="V31" s="9"/>
+      <c r="V31" s="10"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="2" t="s">
@@ -3154,7 +3160,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3360,7 +3366,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3722,7 +3728,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4088,7 +4094,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4265,27 +4271,27 @@
       <c r="A54" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11" t="s">
+      <c r="K54" s="12"/>
+      <c r="L54" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M54" s="5"/>
@@ -4303,33 +4309,33 @@
       <c r="A55" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M55" s="5"/>
@@ -4347,33 +4353,33 @@
       <c r="A56" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="12"/>
+      <c r="I56" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11" t="s">
+      <c r="K56" s="12"/>
+      <c r="L56" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M56" s="5"/>
@@ -4391,31 +4397,31 @@
       <c r="A57" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="12"/>
+      <c r="I57" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11" t="s">
+      <c r="K57" s="12"/>
+      <c r="L57" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M57" s="5"/>
@@ -4433,31 +4439,31 @@
       <c r="A58" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="12"/>
+      <c r="I58" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11" t="s">
+      <c r="K58" s="12"/>
+      <c r="L58" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M58" s="5"/>
@@ -4475,31 +4481,31 @@
       <c r="A59" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="12"/>
+      <c r="I59" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11" t="s">
+      <c r="K59" s="12"/>
+      <c r="L59" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M59" s="5"/>
@@ -4517,31 +4523,31 @@
       <c r="A60" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11" t="s">
+      <c r="K60" s="12"/>
+      <c r="L60" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M60" s="5"/>
@@ -4575,23 +4581,23 @@
       <c r="M61" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9" t="s">
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9" t="s">
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="V61" s="9"/>
+      <c r="V61" s="10"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4610,30 +4616,30 @@
       <c r="L62" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9" t="s">
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="U62" s="9" t="s">
+      <c r="U62" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="V62" s="9" t="s">
+      <c r="V62" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4654,32 +4660,32 @@
       <c r="L63" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M63" s="9" t="s">
+      <c r="M63" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O63" s="9" t="s">
+      <c r="O63" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9" t="s">
+      <c r="S63" s="10"/>
+      <c r="T63" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="U63" s="9" t="s">
+      <c r="U63" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V63" s="9"/>
+      <c r="V63" s="10"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4698,30 +4704,30 @@
       <c r="L64" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9" t="s">
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9" t="s">
+      <c r="S64" s="10"/>
+      <c r="T64" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="U64" s="9" t="s">
+      <c r="U64" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V64" s="9"/>
+      <c r="V64" s="10"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4740,30 +4746,30 @@
       <c r="L65" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9" t="s">
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9" t="s">
+      <c r="S65" s="10"/>
+      <c r="T65" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U65" s="9" t="s">
+      <c r="U65" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V65" s="9"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4782,30 +4788,30 @@
       <c r="L66" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="O66" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9" t="s">
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9" t="s">
+      <c r="S66" s="10"/>
+      <c r="T66" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="U66" s="9" t="s">
+      <c r="U66" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V66" s="9"/>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4824,30 +4830,30 @@
       <c r="L67" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="M67" s="9" t="s">
+      <c r="M67" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="N67" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O67" s="9" t="s">
+      <c r="O67" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9" t="s">
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9" t="s">
+      <c r="S67" s="10"/>
+      <c r="T67" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="U67" s="9" t="s">
+      <c r="U67" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V67" s="9"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
@@ -4872,7 +4878,7 @@
         <v>221</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5142,7 +5148,7 @@
         <v>222</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5282,7 +5288,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5528,21 +5534,21 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="6" t="s">
         <v>204</v>
       </c>
@@ -5552,18 +5558,18 @@
       <c r="L81" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
       <c r="U81" s="6" t="s">
         <v>248</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>227</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5906,7 +5912,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6172,7 +6178,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6358,54 +6364,54 @@
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="K97" s="2" t="s">
         <v>230</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O97" s="5" t="s">
+      <c r="O97" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P97" s="5"/>
+      <c r="P97" s="2"/>
       <c r="Q97" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="V97" s="5" t="s">
+      <c r="V97" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6642,48 +6648,48 @@
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5" t="s">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K102" s="5"/>
+      <c r="K102" s="2"/>
       <c r="L102" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5" t="s">
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P102" s="5"/>
+      <c r="P102" s="2"/>
       <c r="Q102" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5" t="s">
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V102" s="5"/>
+      <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
